--- a/old_database/crypto/library/library_1028.xlsx
+++ b/old_database/crypto/library/library_1028.xlsx
@@ -46,7 +46,7 @@
     <t>08.30.13</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1028</t>
   </si>
   <si>
     <t>09.30.13</t>
